--- a/data/trans_dic/P1403-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1403-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.002826962114644154</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.007640500431402334</v>
+        <v>0.007640500431402332</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001671671031454826</v>
+        <v>0.001676936292691626</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.000822876500223038</v>
+        <v>0.000822210986799488</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001350554687515128</v>
+        <v>0.001325813117994991</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.008833471839739178</v>
+        <v>0.009065746130859328</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01006099000552669</v>
+        <v>0.01192193631780517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01677494988442855</v>
+        <v>0.01999806888206321</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03839307467036599</v>
+        <v>0.0357782914973817</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01617037784956637</v>
+        <v>0.01671347542884105</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.01232560186977087</v>
+        <v>0.01136818275013063</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03896061169788246</v>
+        <v>0.03547183330044291</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.008578689820629325</v>
+        <v>0.008717890769981956</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.006297901576459113</v>
+        <v>0.005429385026032695</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01032305605046623</v>
+        <v>0.01088460237162596</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02723785180805478</v>
+        <v>0.02286873785277684</v>
       </c>
     </row>
     <row r="7">
@@ -843,37 +843,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004102011128376415</v>
+        <v>0.004179890608680186</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004494760856798373</v>
+        <v>0.004926512293638764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007428492435327384</v>
+        <v>0.006977830302502235</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006272290356507959</v>
+        <v>0.006716750522593234</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007465902824408019</v>
+        <v>0.007469710147543395</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003575949234015797</v>
+        <v>0.002991495942544899</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004443424541278465</v>
+        <v>0.004350552246958296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006912450619953422</v>
+        <v>0.007235042866145631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003388561989193609</v>
+        <v>0.003689914586596733</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007634675661372398</v>
+        <v>0.007283014229090279</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01066429475907876</v>
+        <v>0.01098892408443252</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01883509675186786</v>
+        <v>0.02033296815505909</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02656794545627273</v>
+        <v>0.02620004293743517</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04544946980693285</v>
+        <v>0.04618791655632829</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02723445130258251</v>
+        <v>0.02796919549445914</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02963305688047634</v>
+        <v>0.02897223209301848</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01186844758893133</v>
+        <v>0.01171817999423905</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01943446834362341</v>
+        <v>0.0219287743894047</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01451987953313348</v>
+        <v>0.01449874942387917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02000454930212874</v>
+        <v>0.0210484231258947</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0148539197635041</v>
+        <v>0.01508879359028116</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02814495945214569</v>
+        <v>0.02771522940583071</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.02966014102429161</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03059218014706026</v>
+        <v>0.03059218014706025</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.019996957412664</v>
+        <v>0.02077578022553668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03316974333123973</v>
+        <v>0.03227256121023526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0208413466091156</v>
+        <v>0.0212300967607624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02377188800286045</v>
+        <v>0.02402839289058275</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02994569698845839</v>
+        <v>0.03076054681206735</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02388821399810591</v>
+        <v>0.02372098575471173</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01450272227349348</v>
+        <v>0.01494326733750972</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01436244594706592</v>
+        <v>0.01516486425586416</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02848364704962309</v>
+        <v>0.02828824079628757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0320557253022203</v>
+        <v>0.03179035479051642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02142700721860853</v>
+        <v>0.02091550199762451</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02267744439388425</v>
+        <v>0.02244662355707227</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04435637150271002</v>
+        <v>0.04610288943311585</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06964986181073828</v>
+        <v>0.06869715366157129</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05138917035426576</v>
+        <v>0.05032408641259705</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05826308157127903</v>
+        <v>0.05643046390703308</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0616316527208377</v>
+        <v>0.06160782079152984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05284440277910988</v>
+        <v>0.05213319377372141</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04047609708387741</v>
+        <v>0.04011064184966722</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0342437848412664</v>
+        <v>0.0344258410133902</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04899657377408993</v>
+        <v>0.04926482429228211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05449030999857672</v>
+        <v>0.05481405974892082</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0404342599037717</v>
+        <v>0.04007663806222413</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04187828094177807</v>
+        <v>0.04158837085047389</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.1126664310072063</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1431509331272555</v>
+        <v>0.1431509331272556</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1120786366804198</v>
+        <v>0.1112341363691527</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09564031344151207</v>
+        <v>0.09264940414514052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1099710133945378</v>
+        <v>0.1086998919622511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1339859248820956</v>
+        <v>0.1332671341587084</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08464569933519175</v>
+        <v>0.0859811955927966</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1093324521714038</v>
+        <v>0.1076682921923706</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06671454314371365</v>
+        <v>0.06901065549777619</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.10958628124196</v>
+        <v>0.108683717376307</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1065177570337925</v>
+        <v>0.1055640366034453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1098785570762554</v>
+        <v>0.1078466564673411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09546770143425828</v>
+        <v>0.09540858581244993</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1267451081414963</v>
+        <v>0.1276388163036279</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1724991590271974</v>
+        <v>0.1756379361518255</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.148552483274298</v>
+        <v>0.1460795155262791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1672195602198456</v>
+        <v>0.1661462329992568</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1906576280034548</v>
+        <v>0.1925274175928384</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.140721088935702</v>
+        <v>0.1405036673362361</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1671367668301378</v>
+        <v>0.1626755470632378</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1153591280811378</v>
+        <v>0.1154560788990879</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.148201929607709</v>
+        <v>0.1463903074043098</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1461466374568266</v>
+        <v>0.1471879429094858</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1492397822177951</v>
+        <v>0.1463587469114829</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1314309330341201</v>
+        <v>0.1310175940479817</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1590510971066641</v>
+        <v>0.1613865944742481</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.2520814790263338</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2863342084013766</v>
+        <v>0.2863342084013765</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3156207848776952</v>
@@ -1225,7 +1225,7 @@
         <v>0.2973812245749206</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2677164155569756</v>
+        <v>0.2677164155569755</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3124236903785587</v>
@@ -1237,7 +1237,7 @@
         <v>0.2751712362115467</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2770427019591601</v>
+        <v>0.2770427019591602</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2639315679203774</v>
+        <v>0.2645947195064111</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.305742789641428</v>
+        <v>0.3050219831724553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2139658054969997</v>
+        <v>0.2144586768132916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2557411498151216</v>
+        <v>0.2497977779694509</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2711235804111866</v>
+        <v>0.2719970444244962</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3452185935211047</v>
+        <v>0.3405717032180006</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2529330589909622</v>
+        <v>0.257429990081342</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2423733538964494</v>
+        <v>0.2419110510363242</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2791971525402726</v>
+        <v>0.2790576243208567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3380650856492524</v>
+        <v>0.3364256724184038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2452635563500058</v>
+        <v>0.2472610982112029</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2558556008140192</v>
+        <v>0.2557833012571306</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3541593663511864</v>
+        <v>0.3595291457044978</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4050635554910158</v>
+        <v>0.4015814897485496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2982765254032326</v>
+        <v>0.296353422488414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3217543338271541</v>
+        <v>0.3212811505551988</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3655042005673928</v>
+        <v>0.3614188601910177</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.438938736351124</v>
+        <v>0.4333378521246096</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3368345393532251</v>
+        <v>0.3449227353856639</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2961237480328701</v>
+        <v>0.29546594641916</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3465632363966424</v>
+        <v>0.3470909105036633</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4066446053266679</v>
+        <v>0.4032284252167411</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3053555262561685</v>
+        <v>0.3070918569289672</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2998760633962168</v>
+        <v>0.2989270146755053</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.4619360102817014</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4697846848956597</v>
+        <v>0.4697846848956596</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4259688742726226</v>
@@ -1373,7 +1373,7 @@
         <v>0.4372548740200354</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4636473934331774</v>
+        <v>0.4636473934331773</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3350559748854774</v>
+        <v>0.3309472719204025</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4570624482040737</v>
+        <v>0.4602071774107257</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3606022373762</v>
+        <v>0.3561199469431719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4143034425245473</v>
+        <v>0.4196908275412774</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4087090530338658</v>
+        <v>0.4043473543567908</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5179086314954638</v>
+        <v>0.5226730874549964</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4122858265639925</v>
+        <v>0.4121634584807798</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4340717298618952</v>
+        <v>0.4348092850134125</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3905734535049974</v>
+        <v>0.3892577822259268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5056746375320139</v>
+        <v>0.5074800226430237</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4015462569435732</v>
+        <v>0.3998986250850081</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.434045736821097</v>
+        <v>0.4372533676931999</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4431124017255915</v>
+        <v>0.4432163656653642</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5765065013267848</v>
+        <v>0.5815246321031536</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4687116477871049</v>
+        <v>0.4601034549465451</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4999822694129121</v>
+        <v>0.5015531882135348</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5097444074006264</v>
+        <v>0.5073157766031077</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6255465084849148</v>
+        <v>0.6277754616167065</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.510774648951509</v>
+        <v>0.5210066725989233</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.503816440282129</v>
+        <v>0.5024774000143585</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.466062829664474</v>
+        <v>0.4652034571843287</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5853203729767946</v>
+        <v>0.5882771143603742</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4749397631177416</v>
+        <v>0.4782166563887018</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4886549592520928</v>
+        <v>0.4905902344499775</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4076246722608279</v>
+        <v>0.3970987285774474</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.528964932436949</v>
+        <v>0.5411639905680019</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4802972100160999</v>
+        <v>0.4816533601308939</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4902268734921931</v>
+        <v>0.4960555785279251</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5032790665855932</v>
+        <v>0.5055662840381966</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5981571978536468</v>
+        <v>0.6003610084809853</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5097592323087131</v>
+        <v>0.5124416042280437</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6059636153717319</v>
+        <v>0.6040865014982238</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.48600436885889</v>
+        <v>0.4840142696633612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5882808005938244</v>
+        <v>0.5917207014425074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5222807694585802</v>
+        <v>0.5194062491878213</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5717893865446088</v>
+        <v>0.573961211583751</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5378144333382417</v>
+        <v>0.5387484463210837</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6607295541811506</v>
+        <v>0.6720524510298748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5944590672655706</v>
+        <v>0.592318002364064</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5845945064921882</v>
+        <v>0.5910657644841041</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6236577740539077</v>
+        <v>0.6223878574130658</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6957301588688881</v>
+        <v>0.6973315299419618</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6252569256466353</v>
+        <v>0.629398901022156</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6730860235071953</v>
+        <v>0.6726788845988554</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5707542361999887</v>
+        <v>0.5728723824934374</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6685818780344914</v>
+        <v>0.6721562842377661</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5989165912594543</v>
+        <v>0.5962677702995466</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6278618515932871</v>
+        <v>0.6309321603900467</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.1514792265437319</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1914574042116959</v>
+        <v>0.1914574042116958</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1695076079990115</v>
@@ -1633,7 +1633,7 @@
         <v>0.1775696854656333</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2094539160882854</v>
+        <v>0.2094539160882853</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1502492372171193</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1545451281408175</v>
+        <v>0.1551357116521257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1407467184313437</v>
+        <v>0.1402524675108192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1799135786488717</v>
+        <v>0.1792595713738267</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1965456280369122</v>
+        <v>0.1961909835707255</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1646829496265349</v>
+        <v>0.164580379928122</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1994117955380253</v>
+        <v>0.2003165303538612</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1791697911722974</v>
+        <v>0.1804435993573174</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1561655219439043</v>
+        <v>0.1553508186577207</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1920994022419835</v>
+        <v>0.1928770684469373</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1812543355865568</v>
+        <v>0.1810603239779834</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1650040590614794</v>
+        <v>0.1647289656398298</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2054466332475294</v>
+        <v>0.2049459219049194</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2236760078358644</v>
+        <v>0.2239258875936537</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1930660623732073</v>
+        <v>0.1916367501233719</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2203134357291446</v>
+        <v>0.2209614251038768</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1990857311681808</v>
+        <v>0.1996610315538545</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1739489397607601</v>
+        <v>0.1732541285381172</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2082534406605682</v>
+        <v>0.2090058879738482</v>
       </c>
     </row>
     <row r="28">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1040</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7">
@@ -2049,38 +2049,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4364</v>
+        <v>4479</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4569</v>
+        <v>5414</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7036</v>
+        <v>8388</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15656</v>
+        <v>14590</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7559</v>
+        <v>7813</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>4878</v>
+        <v>4499</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14124</v>
+        <v>12859</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8249</v>
+        <v>8383</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5570</v>
+        <v>4802</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8416</v>
+        <v>8873</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20981</v>
+        <v>17616</v>
       </c>
     </row>
     <row r="8">
@@ -2186,37 +2186,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2818</v>
+        <v>2872</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2654</v>
+        <v>2909</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3543</v>
+        <v>3328</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3923</v>
+        <v>4201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4556</v>
+        <v>4558</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1792</v>
+        <v>1499</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6047</v>
+        <v>5921</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8968</v>
+        <v>9386</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3911</v>
+        <v>4258</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7467</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7843</v>
+        <v>8082</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12941</v>
+        <v>13971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15688</v>
+        <v>15471</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21674</v>
+        <v>22027</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17035</v>
+        <v>17495</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18084</v>
+        <v>17680</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6688</v>
+        <v>6604</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9738</v>
+        <v>10988</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19761</v>
+        <v>19733</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25953</v>
+        <v>27307</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17142</v>
+        <v>17413</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27525</v>
+        <v>27105</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12771</v>
+        <v>13269</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22617</v>
+        <v>22005</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13945</v>
+        <v>14205</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14703</v>
+        <v>14861</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20655</v>
+        <v>21217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16950</v>
+        <v>16832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9592</v>
+        <v>9883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8926</v>
+        <v>9425</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37838</v>
+        <v>37578</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>44604</v>
+        <v>44234</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>28508</v>
+        <v>27828</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>28120</v>
+        <v>27833</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28329</v>
+        <v>29444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47492</v>
+        <v>46842</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34384</v>
+        <v>33672</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36035</v>
+        <v>34902</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>42510</v>
+        <v>42494</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37497</v>
+        <v>36992</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26770</v>
+        <v>26529</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21282</v>
+        <v>21395</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65088</v>
+        <v>65444</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>75820</v>
+        <v>76270</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>53797</v>
+        <v>53321</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51928</v>
+        <v>51569</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58185</v>
+        <v>57747</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58782</v>
+        <v>56944</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71047</v>
+        <v>70225</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>93873</v>
+        <v>93369</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>43647</v>
+        <v>44336</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>67159</v>
+        <v>66137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43303</v>
+        <v>44793</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80710</v>
+        <v>80045</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>110223</v>
+        <v>109237</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>135028</v>
+        <v>132531</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>123643</v>
+        <v>123566</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>182147</v>
+        <v>183431</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>89552</v>
+        <v>91182</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>91303</v>
+        <v>89783</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108032</v>
+        <v>107338</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>133578</v>
+        <v>134888</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>72562</v>
+        <v>72450</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>102666</v>
+        <v>99926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>74877</v>
+        <v>74940</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>109150</v>
+        <v>107816</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>151231</v>
+        <v>152308</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>183398</v>
+        <v>179857</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>170219</v>
+        <v>169684</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>228574</v>
+        <v>231931</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>102065</v>
+        <v>102321</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>131295</v>
+        <v>130985</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>102258</v>
+        <v>102494</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>155582</v>
+        <v>151967</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>109530</v>
+        <v>109883</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>154589</v>
+        <v>152508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>125670</v>
+        <v>127904</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>146900</v>
+        <v>146620</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>220760</v>
+        <v>220650</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>296560</v>
+        <v>295122</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>239075</v>
+        <v>241022</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>310724</v>
+        <v>310636</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>136957</v>
+        <v>139034</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>173946</v>
+        <v>172451</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142552</v>
+        <v>141633</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>195742</v>
+        <v>195454</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>147659</v>
+        <v>146008</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>196557</v>
+        <v>194049</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>167356</v>
+        <v>171375</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>179478</v>
+        <v>179079</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>274026</v>
+        <v>274443</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>356720</v>
+        <v>353724</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>297650</v>
+        <v>299343</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>364184</v>
+        <v>363032</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>98032</v>
+        <v>96830</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>141592</v>
+        <v>142566</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>120560</v>
+        <v>119062</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>167647</v>
+        <v>169827</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>140160</v>
+        <v>138664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>183338</v>
+        <v>185024</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>155746</v>
+        <v>155700</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>190103</v>
+        <v>190426</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>248216</v>
+        <v>247380</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>335658</v>
+        <v>336856</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>285938</v>
+        <v>284765</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>365727</v>
+        <v>368429</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>129647</v>
+        <v>129678</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>178594</v>
+        <v>180148</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>156704</v>
+        <v>153826</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>202316</v>
+        <v>202952</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>174809</v>
+        <v>173976</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>221441</v>
+        <v>222230</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>192951</v>
+        <v>196817</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>220647</v>
+        <v>220061</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>296191</v>
+        <v>295645</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>388525</v>
+        <v>390488</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>338201</v>
+        <v>340534</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>411740</v>
+        <v>413371</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>85553</v>
+        <v>83344</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>132162</v>
+        <v>135210</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>123435</v>
+        <v>123784</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>152067</v>
+        <v>153875</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>168049</v>
+        <v>168813</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>232007</v>
+        <v>232862</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>203990</v>
+        <v>205063</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>280948</v>
+        <v>280078</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>264285</v>
+        <v>263203</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>375159</v>
+        <v>377353</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>343226</v>
+        <v>341337</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>442472</v>
+        <v>444153</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>112878</v>
+        <v>113074</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>165084</v>
+        <v>167913</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>152775</v>
+        <v>152225</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>181340</v>
+        <v>183347</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>208244</v>
+        <v>207820</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>269853</v>
+        <v>270474</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>250208</v>
+        <v>251866</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>312069</v>
+        <v>311880</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>310371</v>
+        <v>311523</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>426369</v>
+        <v>428648</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>393588</v>
+        <v>391848</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>485863</v>
+        <v>488239</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>529592</v>
+        <v>531616</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>477744</v>
+        <v>476066</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>634555</v>
+        <v>632248</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>698521</v>
+        <v>697261</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>583726</v>
+        <v>583362</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>743658</v>
+        <v>747032</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1250743</v>
+        <v>1259635</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1083616</v>
+        <v>1077963</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1393922</v>
+        <v>1399565</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>621119</v>
+        <v>620454</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>560082</v>
+        <v>559148</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>724610</v>
+        <v>722844</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>794942</v>
+        <v>795830</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>684331</v>
+        <v>679265</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>821606</v>
+        <v>824023</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1389772</v>
+        <v>1393788</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1207013</v>
+        <v>1202192</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1511140</v>
+        <v>1516600</v>
       </c>
     </row>
     <row r="36">
